--- a/contact.xlsx
+++ b/contact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnallamalapu\Documents\database_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F645CD62-80D8-4159-8732-B2F2B3FCF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81248A0E-1C0C-49E6-BC0A-0D4289B59259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86BEDAFF-8A0E-4FA7-9762-EA218421CE83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D9D0127D-426B-4DCD-AF81-C37A4DE3C07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+  <si>
+    <t>contact_id</t>
+  </si>
   <si>
     <t>LastName</t>
   </si>
@@ -42,7 +45,7 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>age</t>
   </si>
   <si>
     <t>phone_number</t>
@@ -51,12 +54,12 @@
     <t>email</t>
   </si>
   <si>
+    <t>email_otp_ver</t>
+  </si>
+  <si>
     <t>phone_otp_ver</t>
   </si>
   <si>
-    <t>email_otp_ver</t>
-  </si>
-  <si>
     <t>dhubey</t>
   </si>
   <si>
@@ -72,23 +75,247 @@
     <t>reddy</t>
   </si>
   <si>
+    <t>Adah</t>
+  </si>
+  <si>
+    <t>Adah@gmail.com</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>Adhira</t>
+  </si>
+  <si>
+    <t>Adhira@gmail.com</t>
+  </si>
+  <si>
+    <t>mishra</t>
+  </si>
+  <si>
+    <t>Alisha</t>
+  </si>
+  <si>
+    <t>Alisha@gmail.com</t>
+  </si>
+  <si>
+    <t>roje</t>
+  </si>
+  <si>
+    <t>Amoli</t>
+  </si>
+  <si>
+    <t>Amoli@gmail.com</t>
+  </si>
+  <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>Anaisha</t>
+  </si>
+  <si>
+    <t>Anaisha@gmail.com</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Ananya@gmail.com</t>
+  </si>
+  <si>
+    <t>diz</t>
+  </si>
+  <si>
+    <t>Anika</t>
+  </si>
+  <si>
+    <t>Anika@gmail.com</t>
+  </si>
+  <si>
+    <t>nen</t>
+  </si>
+  <si>
+    <t>Anushka</t>
+  </si>
+  <si>
+    <t>Anushka@gmail.com</t>
+  </si>
+  <si>
+    <t>vasu</t>
+  </si>
+  <si>
+    <t>Asmee</t>
+  </si>
+  <si>
+    <t>Asmee@gmail.com</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>Avni</t>
+  </si>
+  <si>
+    <t>Avni@gmail.com</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>Carina</t>
+  </si>
+  <si>
+    <t>Carina@gmail.com</t>
+  </si>
+  <si>
+    <t>nobe</t>
+  </si>
+  <si>
+    <t>Chara</t>
+  </si>
+  <si>
+    <t>Chara@gmail.com</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>Drishti@gmail.com</t>
+  </si>
+  <si>
+    <t>Ela</t>
+  </si>
+  <si>
+    <t>Ela@gmail.com</t>
+  </si>
+  <si>
+    <t>Eshika</t>
+  </si>
+  <si>
+    <t>Eshika@gmail.com</t>
+  </si>
+  <si>
+    <t>venkat</t>
+  </si>
+  <si>
+    <t>Geetika</t>
+  </si>
+  <si>
+    <t>Geetika@gmail.com</t>
+  </si>
+  <si>
+    <t>Gulika</t>
+  </si>
+  <si>
+    <t>Gulika@gmail.com</t>
+  </si>
+  <si>
+    <t>Hiya</t>
+  </si>
+  <si>
+    <t>Hiya@gmail.com</t>
+  </si>
+  <si>
     <t>ram</t>
   </si>
   <si>
-    <t>ram@gmail.com</t>
-  </si>
-  <si>
-    <t>contact_id</t>
+    <t>Hiral</t>
+  </si>
+  <si>
+    <t>Hiral@gmail.com</t>
+  </si>
+  <si>
+    <t>Ira</t>
+  </si>
+  <si>
+    <t>Ira@gmail.com</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Ishana</t>
+  </si>
+  <si>
+    <t>Ishana@gmail.com</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>Ishita</t>
+  </si>
+  <si>
+    <t>Ishita@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeevika</t>
+  </si>
+  <si>
+    <t>Jeevika@gmail.com</t>
+  </si>
+  <si>
+    <t>prem</t>
+  </si>
+  <si>
+    <t>prem@gmail.com</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>sai@gmail.com</t>
+  </si>
+  <si>
+    <t>jin</t>
+  </si>
+  <si>
+    <t>reddy@gmail.com</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>phani@gmail.com</t>
+  </si>
+  <si>
+    <t>roger</t>
+  </si>
+  <si>
+    <t>reddie</t>
+  </si>
+  <si>
+    <t>reddie@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,13 +338,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,46 +659,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABB155-F310-4DEE-AE68-BF29B8EE7EE6}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC7A95-7846-45BC-8726-875051E38577}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -476,10 +708,10 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -488,36 +720,730 @@
         <v>6308131925</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>124</v>
+        <f>A2+3</f>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>3308131925</v>
+        <v>6302172024</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A30" si="0">A3+3</f>
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>6301112232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>6301321233</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>6305162328</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>6302243235</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>6302528394</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>6309174247</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>6300161923</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>6304263541</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>3301923252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>3307192527</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>3301214253</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>3302025313</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>3300182437</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <v>3301831394</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>3301015273</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>3309214647</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>3301323253</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>3301418252</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>91</v>
+      </c>
+      <c r="E22">
+        <v>3308192232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>3301621243</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3302531323</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>3301522264</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>3301721222</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>3301819353</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>3302263031</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>3306192335</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>3305272830</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{CF6ED85C-3849-493A-8B3B-D8E74539FAF0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>